--- a/3_20200430/b/3Bresult.xlsx
+++ b/3_20200430/b/3Bresult.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lkje/Documents/Activities/学校/応用プログラミングB/3_20200430/b/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A1E3353-23E5-564F-B38D-CDA1C5EB42C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0374261-0582-0845-B717-8229A7FCC656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{873F11FA-FBC6-9E4B-99D0-FBED83D491FA}"/>
+    <workbookView xWindow="33600" yWindow="-21140" windowWidth="38400" windowHeight="20160" xr2:uid="{873F11FA-FBC6-9E4B-99D0-FBED83D491FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="result_1" localSheetId="0">Sheet1!$A$1:$H$12</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,6 +33,54 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{88B48F2D-C836-1048-BCED-1C762C3343AF}" name="result" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/lkje/Documents/Activities/学校/応用プログラミングB/3_20200430/b/result.txt">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>f(x1)</t>
+  </si>
+  <si>
+    <t>f(x2)</t>
+  </si>
+  <si>
+    <t>f(M)</t>
+  </si>
+  <si>
+    <t>反復回数</t>
+  </si>
+  <si>
+    <t>区間x1</t>
+  </si>
+  <si>
+    <t>区間x2</t>
+  </si>
+  <si>
+    <t>中間値M</t>
+  </si>
+  <si>
+    <t>δ</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -73,8 +124,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -92,6 +146,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="result_1" connectionId="1" xr16:uid="{C679451B-FC79-F946-AC12-A2303791EE52}" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,13 +449,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199A2BF6-F5F1-9F43-A760-FE12319BA81B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-0.2</v>
+      </c>
+      <c r="C2">
+        <v>1.5</v>
+      </c>
+      <c r="D2">
+        <v>0.65</v>
+      </c>
+      <c r="E2">
+        <v>-0.87605805059819297</v>
+      </c>
+      <c r="F2">
+        <v>0.46364760900080598</v>
+      </c>
+      <c r="G2">
+        <v>-0.336674819386727</v>
+      </c>
+      <c r="H2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.65</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3">
+        <v>1.075</v>
+      </c>
+      <c r="E3">
+        <v>-0.336674819386727</v>
+      </c>
+      <c r="F3">
+        <v>0.46364760900080598</v>
+      </c>
+      <c r="G3">
+        <v>7.4859847710766994E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.65</v>
+      </c>
+      <c r="C4">
+        <v>1.075</v>
+      </c>
+      <c r="D4">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E4">
+        <v>-0.336674819386727</v>
+      </c>
+      <c r="F4">
+        <v>7.4859847710766994E-2</v>
+      </c>
+      <c r="G4">
+        <v>-0.13664316249108699</v>
+      </c>
+      <c r="H4">
+        <v>0.21249999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="C5">
+        <v>1.075</v>
+      </c>
+      <c r="D5">
+        <v>0.96875</v>
+      </c>
+      <c r="E5">
+        <v>-0.13664316249108699</v>
+      </c>
+      <c r="F5">
+        <v>7.4859847710766994E-2</v>
+      </c>
+      <c r="G5">
+        <v>-3.1239833430268E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.10625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.96875</v>
+      </c>
+      <c r="C6">
+        <v>1.075</v>
+      </c>
+      <c r="D6">
+        <v>1.0218750000000001</v>
+      </c>
+      <c r="E6">
+        <v>-3.1239833430268E-2</v>
+      </c>
+      <c r="F6">
+        <v>7.4859847710766994E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.1871511825001001E-2</v>
+      </c>
+      <c r="H6">
+        <v>5.3124999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.96875</v>
+      </c>
+      <c r="C7">
+        <v>1.0218750000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.99531250000000004</v>
+      </c>
+      <c r="E7">
+        <v>-3.1239833430268E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.1871511825001001E-2</v>
+      </c>
+      <c r="G7">
+        <v>-4.6874656681769999E-3</v>
+      </c>
+      <c r="H7">
+        <v>2.6562499999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.99531250000000004</v>
+      </c>
+      <c r="C8">
+        <v>1.0218750000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.00859375</v>
+      </c>
+      <c r="E8">
+        <v>-4.6874656681769999E-3</v>
+      </c>
+      <c r="F8">
+        <v>2.1871511825001001E-2</v>
+      </c>
+      <c r="G8">
+        <v>8.5935384526220002E-3</v>
+      </c>
+      <c r="H8">
+        <v>1.328125E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.99531250000000004</v>
+      </c>
+      <c r="C9">
+        <v>1.00859375</v>
+      </c>
+      <c r="D9">
+        <v>1.001953125</v>
+      </c>
+      <c r="E9">
+        <v>-4.6874656681769999E-3</v>
+      </c>
+      <c r="F9">
+        <v>8.5935384526220002E-3</v>
+      </c>
+      <c r="G9">
+        <v>1.953122516479E-3</v>
+      </c>
+      <c r="H9">
+        <v>6.6406249999999998E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.99531250000000004</v>
+      </c>
+      <c r="C10">
+        <v>1.001953125</v>
+      </c>
+      <c r="D10">
+        <v>0.99863281250000002</v>
+      </c>
+      <c r="E10">
+        <v>-4.6874656681769999E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.953122516479E-3</v>
+      </c>
+      <c r="G10">
+        <v>-1.3671866481509999E-3</v>
+      </c>
+      <c r="H10">
+        <v>3.3203124999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.99863281250000002</v>
+      </c>
+      <c r="C11">
+        <v>1.001953125</v>
+      </c>
+      <c r="D11">
+        <v>1.00029296875</v>
+      </c>
+      <c r="E11">
+        <v>-1.3671866481509999E-3</v>
+      </c>
+      <c r="F11">
+        <v>1.953122516479E-3</v>
+      </c>
+      <c r="G11">
+        <v>2.9296874161799998E-4</v>
+      </c>
+      <c r="H11">
+        <v>1.66015625E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.99863281250000002</v>
+      </c>
+      <c r="C12">
+        <v>1.00029296875</v>
+      </c>
+      <c r="D12">
+        <v>0.99946289062500004</v>
+      </c>
+      <c r="E12">
+        <v>-1.3671866481509999E-3</v>
+      </c>
+      <c r="F12">
+        <v>2.9296874161799998E-4</v>
+      </c>
+      <c r="G12">
+        <v>-5.3710932335000001E-4</v>
+      </c>
+      <c r="H12">
+        <v>8.3007812499999998E-4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>